--- a/Code/Results/Cases/Case_8_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.02022131064324</v>
+        <v>12.04533893700742</v>
       </c>
       <c r="C2">
-        <v>8.162579929607126</v>
+        <v>8.603992361857554</v>
       </c>
       <c r="D2">
-        <v>5.285916919565214</v>
+        <v>5.25423403203348</v>
       </c>
       <c r="E2">
-        <v>15.66618095895395</v>
+        <v>15.8159269939333</v>
       </c>
       <c r="F2">
-        <v>19.5935479945952</v>
+        <v>18.5691371468669</v>
       </c>
       <c r="G2">
-        <v>2.102458418135764</v>
+        <v>4.115668401663355</v>
       </c>
       <c r="H2">
-        <v>1.663362305090873</v>
+        <v>1.584691993635142</v>
       </c>
       <c r="I2">
-        <v>2.810471622295127</v>
+        <v>2.574954460722622</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.10868900803429</v>
+        <v>14.18219194764873</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.09070299822057</v>
       </c>
       <c r="M2">
-        <v>11.31579829259696</v>
+        <v>8.898564574908574</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.09819350799009</v>
+        <v>11.53365640153235</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>16.15565535978148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.19518926669729</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>15.23910197266189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.302830321784</v>
+        <v>11.36884287513175</v>
       </c>
       <c r="C3">
-        <v>7.762655433898289</v>
+        <v>8.125025335956234</v>
       </c>
       <c r="D3">
-        <v>5.117172285553091</v>
+        <v>5.050548612682933</v>
       </c>
       <c r="E3">
-        <v>14.7733593405576</v>
+        <v>14.9627671866972</v>
       </c>
       <c r="F3">
-        <v>19.25381866198053</v>
+        <v>18.25514247808573</v>
       </c>
       <c r="G3">
-        <v>2.10606951806454</v>
+        <v>4.587822316911317</v>
       </c>
       <c r="H3">
-        <v>1.867643256345435</v>
+        <v>1.725745715649411</v>
       </c>
       <c r="I3">
-        <v>2.959693450527973</v>
+        <v>2.696075423063112</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.1595715166404</v>
+        <v>14.25183679573165</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.23281446385574</v>
       </c>
       <c r="M3">
-        <v>10.74001722345882</v>
+        <v>8.881996936123112</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.29137618866998</v>
+        <v>10.96038007780168</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>16.07943689785307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.3848559887515</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>15.17419418912794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.83653711020013</v>
+        <v>10.92984837806593</v>
       </c>
       <c r="C4">
-        <v>7.509227236198544</v>
+        <v>7.821050675235941</v>
       </c>
       <c r="D4">
-        <v>5.010246058750128</v>
+        <v>4.921140016600803</v>
       </c>
       <c r="E4">
-        <v>14.19625135921939</v>
+        <v>14.41251453574661</v>
       </c>
       <c r="F4">
-        <v>19.0495929842486</v>
+        <v>18.0636182407195</v>
       </c>
       <c r="G4">
-        <v>2.108361656631136</v>
+        <v>4.88767094872742</v>
       </c>
       <c r="H4">
-        <v>1.997662910273246</v>
+        <v>1.846691218016945</v>
       </c>
       <c r="I4">
-        <v>3.055431608899996</v>
+        <v>2.774265848216638</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.19397833818912</v>
+        <v>14.2958681063318</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.32124177591084</v>
       </c>
       <c r="M4">
-        <v>10.36992536816402</v>
+        <v>8.888909413729639</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.7710714565617</v>
+        <v>10.59253438549103</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>16.03748000706974</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.86221407543063</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>15.13668978391378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.63758860216191</v>
+        <v>10.74272630947225</v>
       </c>
       <c r="C5">
-        <v>7.412338316677348</v>
+        <v>7.703255831102251</v>
       </c>
       <c r="D5">
-        <v>4.967436816781167</v>
+        <v>4.868982503242593</v>
       </c>
       <c r="E5">
-        <v>13.95266733409745</v>
+        <v>14.1806061070717</v>
       </c>
       <c r="F5">
-        <v>18.95811317301255</v>
+        <v>17.97670308291138</v>
       </c>
       <c r="G5">
-        <v>2.109321093607386</v>
+        <v>5.01323271760497</v>
       </c>
       <c r="H5">
-        <v>2.051981846644859</v>
+        <v>1.897226341866715</v>
       </c>
       <c r="I5">
-        <v>3.098350560255243</v>
+        <v>2.810547362133405</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.20211637977613</v>
+        <v>14.30783467413467</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.35179076547238</v>
       </c>
       <c r="M5">
-        <v>10.21657410339652</v>
+        <v>8.892399105210211</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.5537620060694</v>
+        <v>10.44024476038679</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>16.01467959647702</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.64388574856218</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>15.11525147972474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.60113302500413</v>
+        <v>10.70842517258151</v>
       </c>
       <c r="C6">
-        <v>7.406323762549595</v>
+        <v>7.693928830587178</v>
       </c>
       <c r="D6">
-        <v>4.9622053454334</v>
+        <v>4.862256496415898</v>
       </c>
       <c r="E6">
-        <v>13.91030331140438</v>
+        <v>14.1403089716763</v>
       </c>
       <c r="F6">
-        <v>18.93147599784199</v>
+        <v>17.95099821145678</v>
       </c>
       <c r="G6">
-        <v>2.109489178779671</v>
+        <v>5.035254841059623</v>
       </c>
       <c r="H6">
-        <v>2.061274137265089</v>
+        <v>1.905860477109788</v>
       </c>
       <c r="I6">
-        <v>3.109221209733244</v>
+        <v>2.821093828070088</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.19538585954186</v>
+        <v>14.30217174413608</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.34982955412617</v>
       </c>
       <c r="M6">
-        <v>10.1927529574133</v>
+        <v>8.888810775132686</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.5183886864237</v>
+        <v>10.41654620389853</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16.00253818570162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.60830409599496</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>15.10350604177746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.82577777081351</v>
+        <v>10.92246550491202</v>
       </c>
       <c r="C7">
-        <v>7.535301062545398</v>
+        <v>7.831697830236697</v>
       </c>
       <c r="D7">
-        <v>5.014898767248707</v>
+        <v>4.935830923198472</v>
       </c>
       <c r="E7">
-        <v>14.18903455566679</v>
+        <v>14.40553820040243</v>
       </c>
       <c r="F7">
-        <v>19.01709871115635</v>
+        <v>17.97700179160078</v>
       </c>
       <c r="G7">
-        <v>2.108394912290328</v>
+        <v>4.946144055342814</v>
       </c>
       <c r="H7">
-        <v>1.998931023853307</v>
+        <v>1.848757652544802</v>
       </c>
       <c r="I7">
-        <v>3.06575142385596</v>
+        <v>2.787850420841459</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.17190880356019</v>
+        <v>14.24930889407557</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.27984617025026</v>
       </c>
       <c r="M7">
-        <v>10.37295192952286</v>
+        <v>8.86048596310243</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.77104990402382</v>
+        <v>10.59148416583919</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16.01422574175272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.86028904614967</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>15.07425980624022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.76828101304672</v>
+        <v>11.81640698269461</v>
       </c>
       <c r="C8">
-        <v>8.060637385689827</v>
+        <v>8.426757053784458</v>
       </c>
       <c r="D8">
-        <v>5.235210436958894</v>
+        <v>5.224377885888155</v>
       </c>
       <c r="E8">
-        <v>15.35953968507058</v>
+        <v>15.52256651916607</v>
       </c>
       <c r="F8">
-        <v>19.43519941073247</v>
+        <v>18.24455969762899</v>
       </c>
       <c r="G8">
-        <v>2.10371348495425</v>
+        <v>4.582367610644569</v>
       </c>
       <c r="H8">
-        <v>1.733525301435789</v>
+        <v>1.603860497180843</v>
       </c>
       <c r="I8">
-        <v>2.873582706225299</v>
+        <v>2.635103247885185</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.0963696460154</v>
+        <v>14.09489942704502</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.04750467583962</v>
       </c>
       <c r="M8">
-        <v>11.12714811453184</v>
+        <v>8.811987532673855</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.82877212764472</v>
+        <v>11.33337698135105</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16.09837253435355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.9189106350246</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>15.05777100991043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.42365308038531</v>
+        <v>13.38190789380262</v>
       </c>
       <c r="C9">
-        <v>8.981360276684315</v>
+        <v>9.523287459245077</v>
       </c>
       <c r="D9">
-        <v>5.630781826565423</v>
+        <v>5.707679160999438</v>
       </c>
       <c r="E9">
-        <v>17.42944234321448</v>
+        <v>17.50621230764348</v>
       </c>
       <c r="F9">
-        <v>20.3410286180786</v>
+        <v>19.0312718758568</v>
       </c>
       <c r="G9">
-        <v>2.095080250435116</v>
+        <v>3.593472146173118</v>
       </c>
       <c r="H9">
-        <v>1.865691354483932</v>
+        <v>1.95788264182955</v>
       </c>
       <c r="I9">
-        <v>2.512997708481698</v>
+        <v>2.619573353712128</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.01395877958625</v>
+        <v>13.93250222653952</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.71439120261656</v>
       </c>
       <c r="M9">
-        <v>12.46327714997519</v>
+        <v>8.935530344062188</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.69735407455536</v>
+        <v>12.66467694213249</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16.34342995563534</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.79420259754256</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>15.22876861279723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.54553920619299</v>
+        <v>14.46331351452661</v>
       </c>
       <c r="C10">
-        <v>9.628617046771479</v>
+        <v>10.20340301980766</v>
       </c>
       <c r="D10">
-        <v>5.931424467437004</v>
+        <v>6.119289435385531</v>
       </c>
       <c r="E10">
-        <v>18.2502399436347</v>
+        <v>18.27803564927026</v>
       </c>
       <c r="F10">
-        <v>20.86597551869304</v>
+        <v>19.18634756438705</v>
       </c>
       <c r="G10">
-        <v>2.089200332139993</v>
+        <v>4.401288965944514</v>
       </c>
       <c r="H10">
-        <v>2.173440793821646</v>
+        <v>2.237470433241991</v>
       </c>
       <c r="I10">
-        <v>2.685444660393018</v>
+        <v>2.809599250673433</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.87669486136823</v>
+        <v>13.60424985308573</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.32934711314289</v>
       </c>
       <c r="M10">
-        <v>13.38337876888697</v>
+        <v>8.918996564184202</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.67967477681619</v>
+        <v>13.56348607073652</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16.42970166641315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.77044201688748</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>15.04690865988038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.32180067804912</v>
+        <v>15.27341846976944</v>
       </c>
       <c r="C11">
-        <v>9.9537029781977</v>
+        <v>10.32848244793943</v>
       </c>
       <c r="D11">
-        <v>6.299282645191728</v>
+        <v>6.626846483730979</v>
       </c>
       <c r="E11">
-        <v>13.94048408416165</v>
+        <v>13.98270773749175</v>
       </c>
       <c r="F11">
-        <v>19.83822765690472</v>
+        <v>17.641348899038</v>
       </c>
       <c r="G11">
-        <v>2.087559111145948</v>
+        <v>8.106886853312567</v>
       </c>
       <c r="H11">
-        <v>2.946011245002789</v>
+        <v>2.981497309499558</v>
       </c>
       <c r="I11">
-        <v>2.762465902323926</v>
+        <v>2.865964138384122</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.07685369468955</v>
+        <v>12.66633779407323</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.65858474655816</v>
       </c>
       <c r="M11">
-        <v>13.9749015836774</v>
+        <v>8.204931617681803</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.83231730925919</v>
+        <v>14.10161963219246</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15.50664621597541</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.89633732934801</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.7785725192147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.76430236194126</v>
+        <v>15.74443448033772</v>
       </c>
       <c r="C12">
-        <v>10.06463224484181</v>
+        <v>10.30651636405845</v>
       </c>
       <c r="D12">
-        <v>6.550099306419459</v>
+        <v>6.941056054791471</v>
       </c>
       <c r="E12">
-        <v>10.34784175576104</v>
+        <v>10.4174251994599</v>
       </c>
       <c r="F12">
-        <v>18.88946121188321</v>
+        <v>16.51774680328818</v>
       </c>
       <c r="G12">
-        <v>2.087232851414909</v>
+        <v>9.961845249224895</v>
       </c>
       <c r="H12">
-        <v>4.16616895695282</v>
+        <v>4.188331767669407</v>
       </c>
       <c r="I12">
-        <v>2.7771886332005</v>
+        <v>2.874700729772784</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.4839941698156</v>
+        <v>12.10830586155734</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.30244505351206</v>
       </c>
       <c r="M12">
-        <v>14.28536543388065</v>
+        <v>7.721715774888714</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.0570041386968</v>
+        <v>14.38140920066583</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.7440831510455</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.10510826063559</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.93701237091308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.9806002973402</v>
+        <v>15.98017808526828</v>
       </c>
       <c r="C13">
-        <v>10.05441228897232</v>
+        <v>10.23493065459248</v>
       </c>
       <c r="D13">
-        <v>6.735913798733839</v>
+        <v>7.105409302150477</v>
       </c>
       <c r="E13">
-        <v>7.33901693664548</v>
+        <v>7.4607702628881</v>
       </c>
       <c r="F13">
-        <v>17.88605781575363</v>
+        <v>15.70418066649719</v>
       </c>
       <c r="G13">
-        <v>2.087927075401761</v>
+        <v>9.566203867204672</v>
       </c>
       <c r="H13">
-        <v>5.477181900651028</v>
+        <v>5.494645300884677</v>
       </c>
       <c r="I13">
-        <v>2.75017317144569</v>
+        <v>2.854626365587114</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.98567749858591</v>
+        <v>11.79482426772213</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.12300924010747</v>
       </c>
       <c r="M13">
-        <v>14.41257905603314</v>
+        <v>7.404461351184096</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.18954473252444</v>
+        <v>14.49915071357797</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14.02438837702653</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.22670607111676</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.39879887566902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.03111352826291</v>
+        <v>16.04038028504636</v>
       </c>
       <c r="C14">
-        <v>9.999715429470717</v>
+        <v>10.16736771593262</v>
       </c>
       <c r="D14">
-        <v>6.840024830923854</v>
+        <v>7.155018082188618</v>
       </c>
       <c r="E14">
-        <v>6.061288613266202</v>
+        <v>6.232602391043709</v>
       </c>
       <c r="F14">
-        <v>17.14859520781391</v>
+        <v>15.25301434905118</v>
       </c>
       <c r="G14">
-        <v>2.088866863485229</v>
+        <v>8.305548114541475</v>
       </c>
       <c r="H14">
-        <v>6.452926936271854</v>
+        <v>6.441392136985057</v>
       </c>
       <c r="I14">
-        <v>2.714090131622909</v>
+        <v>2.829179219101248</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.68383283267776</v>
+        <v>11.66786798939416</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.05734772674036</v>
       </c>
       <c r="M14">
-        <v>14.42184866223987</v>
+        <v>7.250759166413516</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.957810667256831</v>
+        <v>14.51070834692392</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.54035543563462</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.964415090081417</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.13973877049921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.99218800321453</v>
+        <v>16.00238735509435</v>
       </c>
       <c r="C15">
-        <v>9.969010325576285</v>
+        <v>10.14654641577517</v>
       </c>
       <c r="D15">
-        <v>6.852753335139212</v>
+        <v>7.137661098128784</v>
       </c>
       <c r="E15">
-        <v>5.93123258354277</v>
+        <v>6.11712878608214</v>
       </c>
       <c r="F15">
-        <v>16.94873801047906</v>
+        <v>15.18735207765737</v>
       </c>
       <c r="G15">
-        <v>2.089339439920492</v>
+        <v>7.587190240354959</v>
       </c>
       <c r="H15">
-        <v>6.692169826683725</v>
+        <v>6.680168215217202</v>
       </c>
       <c r="I15">
-        <v>2.697500047448047</v>
+        <v>2.818339090336172</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.62301710010427</v>
+        <v>11.66852915982703</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.06112227339404</v>
       </c>
       <c r="M15">
-        <v>14.38603369299785</v>
+        <v>7.236211197138317</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.64094614104914</v>
+        <v>14.47950607902325</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.42556836075565</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.646329830788753</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.11969389796337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.50451539782075</v>
+        <v>15.5046340155991</v>
       </c>
       <c r="C16">
-        <v>9.718304950965175</v>
+        <v>10.00455212201019</v>
       </c>
       <c r="D16">
-        <v>6.699439234039403</v>
+        <v>6.846020687966822</v>
       </c>
       <c r="E16">
-        <v>5.915575924831701</v>
+        <v>6.152047400895628</v>
       </c>
       <c r="F16">
-        <v>16.87896588132059</v>
+        <v>15.64616176732638</v>
       </c>
       <c r="G16">
-        <v>2.091709298995123</v>
+        <v>4.422719604283404</v>
       </c>
       <c r="H16">
-        <v>6.477869634367623</v>
+        <v>6.460814757626064</v>
       </c>
       <c r="I16">
-        <v>2.604262889119023</v>
+        <v>2.751575540686611</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.77703954764153</v>
+        <v>11.98511571923388</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.27138699078311</v>
       </c>
       <c r="M16">
-        <v>13.99366584034019</v>
+        <v>7.460990337083967</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.450476400478371</v>
+        <v>14.12304000167308</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.51943788943176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.461135462017635</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.54706291371008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.09269356073522</v>
+        <v>15.08428562640393</v>
       </c>
       <c r="C17">
-        <v>9.553588150810286</v>
+        <v>9.912028083739049</v>
       </c>
       <c r="D17">
-        <v>6.522597343492229</v>
+        <v>6.611059710459152</v>
       </c>
       <c r="E17">
-        <v>6.368502614285759</v>
+        <v>6.609374706180203</v>
       </c>
       <c r="F17">
-        <v>17.22430997720101</v>
+        <v>16.18140195441769</v>
       </c>
       <c r="G17">
-        <v>2.093041974470028</v>
+        <v>3.436170769623332</v>
       </c>
       <c r="H17">
-        <v>5.728346222766993</v>
+        <v>5.70618627009473</v>
       </c>
       <c r="I17">
-        <v>2.551795949661278</v>
+        <v>2.713130733274573</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.04918054540631</v>
+        <v>12.29097069248552</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.48294248827457</v>
       </c>
       <c r="M17">
-        <v>13.68130761663405</v>
+        <v>7.69401429602283</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.971753825307198</v>
+        <v>13.8331037176486</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.84561512726284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.990728702752047</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.98386853341731</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.71297778523625</v>
+        <v>14.69029496914393</v>
       </c>
       <c r="C18">
-        <v>9.428249678826477</v>
+        <v>9.861428939215076</v>
       </c>
       <c r="D18">
-        <v>6.305260198389486</v>
+        <v>6.374808069358711</v>
       </c>
       <c r="E18">
-        <v>8.309267493347763</v>
+        <v>8.493867915744302</v>
       </c>
       <c r="F18">
-        <v>17.98616537168326</v>
+        <v>16.96741119471584</v>
       </c>
       <c r="G18">
-        <v>2.093540651643261</v>
+        <v>3.17121003675353</v>
       </c>
       <c r="H18">
-        <v>4.445114557015665</v>
+        <v>4.429993333389652</v>
       </c>
       <c r="I18">
-        <v>2.526322291619955</v>
+        <v>2.692327002262516</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.48504212443627</v>
+        <v>12.68551710528648</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.75913171572792</v>
       </c>
       <c r="M18">
-        <v>13.40502721778631</v>
+        <v>8.013817890678137</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.32822952731458</v>
+        <v>13.57578240943303</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.43232805433332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.40514498150864</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.57063899140554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.382811296089</v>
+        <v>14.34035014990659</v>
       </c>
       <c r="C19">
-        <v>9.393340942819878</v>
+        <v>9.907673937407624</v>
       </c>
       <c r="D19">
-        <v>6.089099855717354</v>
+        <v>6.161477809810333</v>
       </c>
       <c r="E19">
-        <v>11.83188989650655</v>
+        <v>11.94802475802475</v>
       </c>
       <c r="F19">
-        <v>18.97435016485705</v>
+        <v>17.88826294735543</v>
       </c>
       <c r="G19">
-        <v>2.093258901817013</v>
+        <v>3.069211558338067</v>
       </c>
       <c r="H19">
-        <v>3.023372077054647</v>
+        <v>3.073934979370974</v>
       </c>
       <c r="I19">
-        <v>2.538388766579871</v>
+        <v>2.703091613902532</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.01562981795655</v>
+        <v>13.12936031665664</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.06972352617593</v>
       </c>
       <c r="M19">
-        <v>13.19318347235742</v>
+        <v>8.385446026417425</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.25123129121336</v>
+        <v>13.38025398374945</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15.16434873760722</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.338316145021</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>14.24046780166074</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.24153624479392</v>
+        <v>14.16207410048795</v>
       </c>
       <c r="C20">
-        <v>9.532492475037236</v>
+        <v>10.14602764206018</v>
       </c>
       <c r="D20">
-        <v>5.870022512459229</v>
+        <v>5.996691566762228</v>
       </c>
       <c r="E20">
-        <v>18.00461364501942</v>
+        <v>18.04528800524519</v>
       </c>
       <c r="F20">
-        <v>20.63231186672884</v>
+        <v>19.23020247602378</v>
       </c>
       <c r="G20">
-        <v>2.090779741688769</v>
+        <v>3.277400427769932</v>
       </c>
       <c r="H20">
-        <v>2.090210939702284</v>
+        <v>2.164311201620271</v>
       </c>
       <c r="I20">
-        <v>2.635588789891926</v>
+        <v>2.778910196017246</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.84053237880673</v>
+        <v>13.71267058071418</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.44315010250112</v>
       </c>
       <c r="M20">
-        <v>13.16204783293219</v>
+        <v>8.939891649593523</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.4228459123946</v>
+        <v>13.35830842648992</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16.33258369074346</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.52011658824147</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>15.15779254431456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.01301310855095</v>
+        <v>14.94394776354298</v>
       </c>
       <c r="C21">
-        <v>9.997385660320733</v>
+        <v>10.41532919301418</v>
       </c>
       <c r="D21">
-        <v>6.051521916747603</v>
+        <v>6.435819353356499</v>
       </c>
       <c r="E21">
-        <v>19.45718156209877</v>
+        <v>19.46139048311786</v>
       </c>
       <c r="F21">
-        <v>21.28059937390924</v>
+        <v>18.65898449202277</v>
       </c>
       <c r="G21">
-        <v>2.08616637941624</v>
+        <v>9.703998868339657</v>
       </c>
       <c r="H21">
-        <v>2.353081241324011</v>
+        <v>2.393668157195342</v>
       </c>
       <c r="I21">
-        <v>2.819608832773938</v>
+        <v>2.908152570786179</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.88557026465275</v>
+        <v>13.14180289610404</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.95508833963638</v>
       </c>
       <c r="M21">
-        <v>13.8042451349073</v>
+        <v>8.653079917270942</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.54942426622147</v>
+        <v>13.9319400814476</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16.59133816606602</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.6175032422838</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.4998899218333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.51999440914805</v>
+        <v>15.46345403075396</v>
       </c>
       <c r="C22">
-        <v>10.26652601714619</v>
+        <v>10.54383802080831</v>
       </c>
       <c r="D22">
-        <v>6.173807714703577</v>
+        <v>6.73823152894161</v>
       </c>
       <c r="E22">
-        <v>20.09654944214419</v>
+        <v>20.08375911425207</v>
       </c>
       <c r="F22">
-        <v>21.66804819547908</v>
+        <v>18.19850298154692</v>
       </c>
       <c r="G22">
-        <v>2.083247522545965</v>
+        <v>14.67540802005504</v>
       </c>
       <c r="H22">
-        <v>2.510823113336826</v>
+        <v>2.530862292909326</v>
       </c>
       <c r="I22">
-        <v>2.931344739475458</v>
+        <v>2.985162250267201</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.90417473311115</v>
+        <v>12.73727869653796</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.64093055958472</v>
       </c>
       <c r="M22">
-        <v>14.21389978030215</v>
+        <v>8.428935862339397</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.12214244057841</v>
+        <v>14.29594762837194</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16.73756464861489</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.16963683780092</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.00626761206471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.25856494110169</v>
+        <v>15.18860215690962</v>
       </c>
       <c r="C23">
-        <v>10.09808064812006</v>
+        <v>10.48089735479866</v>
       </c>
       <c r="D23">
-        <v>6.103352388424687</v>
+        <v>6.546651349342731</v>
       </c>
       <c r="E23">
-        <v>19.76107253466123</v>
+        <v>19.7556443984092</v>
       </c>
       <c r="F23">
-        <v>21.4934235350466</v>
+        <v>18.59975807184065</v>
       </c>
       <c r="G23">
-        <v>2.084781943009327</v>
+        <v>11.2058011398286</v>
       </c>
       <c r="H23">
-        <v>2.427414340683691</v>
+        <v>2.459496206280471</v>
       </c>
       <c r="I23">
-        <v>2.86733691353343</v>
+        <v>2.93995577756706</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.91932661072263</v>
+        <v>13.03149659144792</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.85439809511738</v>
       </c>
       <c r="M23">
-        <v>13.99192344527624</v>
+        <v>8.621564304786622</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.81610139868246</v>
+        <v>14.10544372685299</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16.68429766929322</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.87809572074583</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.38530346942593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.21178763871606</v>
+        <v>14.12968549225254</v>
       </c>
       <c r="C24">
-        <v>9.483418826554905</v>
+        <v>10.10537501127931</v>
       </c>
       <c r="D24">
-        <v>5.837871571280076</v>
+        <v>5.962438869449515</v>
       </c>
       <c r="E24">
-        <v>18.43284601035825</v>
+        <v>18.47057379562479</v>
       </c>
       <c r="F24">
-        <v>20.78623299069527</v>
+        <v>19.38210172827097</v>
       </c>
       <c r="G24">
-        <v>2.090729934582968</v>
+        <v>3.230736205922319</v>
       </c>
       <c r="H24">
-        <v>2.104055506160214</v>
+        <v>2.178320214218695</v>
       </c>
       <c r="I24">
-        <v>2.628048389689169</v>
+        <v>2.769530873356191</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.94519382035976</v>
+        <v>13.80625246182575</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.50981618054773</v>
       </c>
       <c r="M24">
-        <v>13.12655248747883</v>
+        <v>9.016206280518618</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.6141497566699</v>
+        <v>13.32492419671426</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16.45417923772985</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.71277342367685</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>15.27551519736092</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.98561522139201</v>
+        <v>12.96358630768709</v>
       </c>
       <c r="C25">
-        <v>8.782918985883537</v>
+        <v>9.299876303606048</v>
       </c>
       <c r="D25">
-        <v>5.535794063548867</v>
+        <v>5.576817139501224</v>
       </c>
       <c r="E25">
-        <v>16.88858912317852</v>
+        <v>16.98718768288948</v>
       </c>
       <c r="F25">
-        <v>20.03994829535188</v>
+        <v>18.83954734924303</v>
       </c>
       <c r="G25">
-        <v>2.097387517422394</v>
+        <v>3.648310528174151</v>
       </c>
       <c r="H25">
-        <v>1.740291795225593</v>
+        <v>1.842826193051845</v>
       </c>
       <c r="I25">
-        <v>2.625580728288158</v>
+        <v>2.555325826727957</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.99373747132915</v>
+        <v>13.97463684256238</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.80305296862579</v>
       </c>
       <c r="M25">
-        <v>12.1247157884645</v>
+        <v>8.887282430183973</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.21813690309459</v>
+        <v>12.33162389828857</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>16.23256711480166</v>
+        <v>15.31546300177928</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>15.19628249879879</v>
       </c>
     </row>
   </sheetData>
